--- a/optimize_hyperparam/opt_results/opt_res_ml_26102023/CatBoostModel/261023_DF_opt_hyperparam_CatBoostModel_6-nstep.xlsx
+++ b/optimize_hyperparam/opt_results/opt_res_ml_26102023/CatBoostModel/261023_DF_opt_hyperparam_CatBoostModel_6-nstep.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,7 +523,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bình Phước</t>
+          <t>An Giang</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19.17976248763845</v>
+        <v>6.504795827936729</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06736945083645177</v>
+        <v>0.08919451390261784</v>
       </c>
       <c r="I2" t="n">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -567,26 +567,26 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.1,0.5,0.9</t>
+          <t>IsNone</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>46.50690998395231</v>
+        <v>32.00606961481064</v>
       </c>
       <c r="O2" t="n">
-        <v>64</v>
+        <v>243</v>
       </c>
       <c r="P2" t="n">
-        <v>3.887623892264028</v>
+        <v>6.185977863835104</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.601847340502496</v>
+        <v>0.1143640409664074</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>An Giang</t>
+          <t>BR Vũng Tàu</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14.06486150888814</v>
+        <v>12.93104849127671</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -612,16 +612,16 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09919393215365824</v>
+        <v>0.08126244782719416</v>
       </c>
       <c r="I3" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="J3" t="n">
         <v>14</v>
       </c>
       <c r="K3" t="n">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -634,22 +634,22 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>82.26324718107246</v>
+        <v>53.65006209079391</v>
       </c>
       <c r="O3" t="n">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="P3" t="n">
-        <v>6.247174893703423</v>
+        <v>3.31725475468104</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.908410140933491</v>
+        <v>0.4943944197589771</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Quảng Ninh</t>
+          <t>Bình Phước</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.334603206337877</v>
+        <v>14.70059995060521</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -675,16 +675,16 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03593837885590801</v>
+        <v>0.04792005310634838</v>
       </c>
       <c r="I4" t="n">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="J4" t="n">
         <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>926</v>
+        <v>122</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -693,20 +693,3296 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>78.63893918523642</v>
+      </c>
+      <c r="O4" t="n">
+        <v>228</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.439110399145325</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>7.574150853227845</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Bình Thuận</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5.31154013776845</v>
+      </c>
+      <c r="D5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.05665899595684259</v>
+      </c>
+      <c r="I5" t="n">
+        <v>163</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>467</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
           <t>IsNone</t>
         </is>
       </c>
-      <c r="N4" t="n">
-        <v>36.30672835307809</v>
-      </c>
-      <c r="O4" t="n">
-        <v>154</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.467131247998955</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.700107354375902</v>
+      <c r="N5" t="n">
+        <v>97.04041068251043</v>
+      </c>
+      <c r="O5" t="n">
+        <v>251</v>
+      </c>
+      <c r="P5" t="n">
+        <v>9.748514247595773</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.768210292979881</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Bình Định</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6.383790526015632</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.005192807820522007</v>
+      </c>
+      <c r="I6" t="n">
+        <v>161</v>
+      </c>
+      <c r="J6" t="n">
+        <v>14</v>
+      </c>
+      <c r="K6" t="n">
+        <v>675</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>14.50658791046893</v>
+      </c>
+      <c r="O6" t="n">
+        <v>253</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6.688358892028875</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.9088972478755094</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bạc Liêu</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5.252443622817423</v>
+      </c>
+      <c r="D7" t="n">
+        <v>50</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.09962242513380443</v>
+      </c>
+      <c r="I7" t="n">
+        <v>69</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>955</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>17.2767195481168</v>
+      </c>
+      <c r="O7" t="n">
+        <v>197</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.323605827176273</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.8001933709670456</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Bắc Kạn</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1.562336000427424e-06</v>
+      </c>
+      <c r="D8" t="n">
+        <v>50</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.01402585407403867</v>
+      </c>
+      <c r="I8" t="n">
+        <v>146</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>993</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>57.25181122017894</v>
+      </c>
+      <c r="O8" t="n">
+        <v>222</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.574400655157031</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4.615797422876421</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Bắc Giang</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1899249877657452</v>
+      </c>
+      <c r="D9" t="n">
+        <v>50</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.09930651980375749</v>
+      </c>
+      <c r="I9" t="n">
+        <v>50</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>723</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>94.01367657233772</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>6.258286424261501</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>6.108218619678787</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Cao Bằng</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.005367753024408666</v>
+      </c>
+      <c r="D10" t="n">
+        <v>50</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.006837490519861833</v>
+      </c>
+      <c r="I10" t="n">
+        <v>180</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>428</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>99.43714113692997</v>
+      </c>
+      <c r="O10" t="n">
+        <v>220</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5.776443327614619</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.814754093369912</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Cà Mau</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>18.51471349333404</v>
+      </c>
+      <c r="D11" t="n">
+        <v>50</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.02684239888743423</v>
+      </c>
+      <c r="I11" t="n">
+        <v>84</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>145</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>72.55067198240506</v>
+      </c>
+      <c r="O11" t="n">
+        <v>78</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.4656062182122906</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4.797486407671904</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Cần Thơ</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4.456486554275835</v>
+      </c>
+      <c r="D12" t="n">
+        <v>50</v>
+      </c>
+      <c r="E12" t="n">
+        <v>8</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.00100125395938539</v>
+      </c>
+      <c r="I12" t="n">
+        <v>58</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>584</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>92.05820826774057</v>
+      </c>
+      <c r="O12" t="n">
+        <v>192</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5.555319505879549</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.559042793949476</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Gia Lai</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>3.480043491908186</v>
+      </c>
+      <c r="D13" t="n">
+        <v>50</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.07290286854936356</v>
+      </c>
+      <c r="I13" t="n">
+        <v>88</v>
+      </c>
+      <c r="J13" t="n">
+        <v>15</v>
+      </c>
+      <c r="K13" t="n">
+        <v>337</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>60.20127201035035</v>
+      </c>
+      <c r="O13" t="n">
+        <v>198</v>
+      </c>
+      <c r="P13" t="n">
+        <v>7.253147037246183</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4.627999240402771</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Hà Giang</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>3.211685784658345e-06</v>
+      </c>
+      <c r="D14" t="n">
+        <v>50</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.06731297355541994</v>
+      </c>
+      <c r="I14" t="n">
+        <v>59</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>37</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>27.60037813657551</v>
+      </c>
+      <c r="O14" t="n">
+        <v>244</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.904654974536093</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>7.302383648653413</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1.954506417317025</v>
+      </c>
+      <c r="D15" t="n">
+        <v>50</v>
+      </c>
+      <c r="E15" t="n">
+        <v>8</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.09325446800287256</v>
+      </c>
+      <c r="I15" t="n">
+        <v>124</v>
+      </c>
+      <c r="J15" t="n">
+        <v>7</v>
+      </c>
+      <c r="K15" t="n">
+        <v>566</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>5.356318616791134</v>
+      </c>
+      <c r="O15" t="n">
+        <v>189</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.8635082415119131</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>6.949476501771895</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Hà Tĩnh</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3989001445596212</v>
+      </c>
+      <c r="D16" t="n">
+        <v>50</v>
+      </c>
+      <c r="E16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.00529768012968534</v>
+      </c>
+      <c r="I16" t="n">
+        <v>112</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>859</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>45.09011271148555</v>
+      </c>
+      <c r="O16" t="n">
+        <v>192</v>
+      </c>
+      <c r="P16" t="n">
+        <v>8.871913512274045</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.389578603475801</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Hòa Bình</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0230310319091231</v>
+      </c>
+      <c r="D17" t="n">
+        <v>50</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.05458047880672133</v>
+      </c>
+      <c r="I17" t="n">
+        <v>94</v>
+      </c>
+      <c r="J17" t="n">
+        <v>6</v>
+      </c>
+      <c r="K17" t="n">
+        <v>641</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>43.57240751423337</v>
+      </c>
+      <c r="O17" t="n">
+        <v>217</v>
+      </c>
+      <c r="P17" t="n">
+        <v>7.278011552707258</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.2963836577347365</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Hưng Yên</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.019407784171156</v>
+      </c>
+      <c r="D18" t="n">
+        <v>50</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.009473632759741099</v>
+      </c>
+      <c r="I18" t="n">
+        <v>157</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>306</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>66.5159724222939</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>7.049463336181589</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.24525200606189</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Hải Dương</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.01921926673558566</v>
+      </c>
+      <c r="D19" t="n">
+        <v>50</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.01358447841405948</v>
+      </c>
+      <c r="I19" t="n">
+        <v>88</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>545</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>58.66240962133094</v>
+      </c>
+      <c r="O19" t="n">
+        <v>14</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.389705790878029</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5.191729547002725</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Hải Phòng</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6380601464146869</v>
+      </c>
+      <c r="D20" t="n">
+        <v>50</v>
+      </c>
+      <c r="E20" t="n">
+        <v>8</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.002614159750738853</v>
+      </c>
+      <c r="I20" t="n">
+        <v>72</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>609</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>60.35491686966847</v>
+      </c>
+      <c r="O20" t="n">
+        <v>90</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4.671387544191923</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.260293394219911</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Khánh Hòa</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>11.1731036949334</v>
+      </c>
+      <c r="D21" t="n">
+        <v>50</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.08514747825215041</v>
+      </c>
+      <c r="I21" t="n">
+        <v>107</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>117</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>71.00138340050277</v>
+      </c>
+      <c r="O21" t="n">
+        <v>35</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4.149414841549467</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3.503926665262152</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Kiên Giang</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>8.044414972799721</v>
+      </c>
+      <c r="D22" t="n">
+        <v>50</v>
+      </c>
+      <c r="E22" t="n">
+        <v>8</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.03743353525788712</v>
+      </c>
+      <c r="I22" t="n">
+        <v>51</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>741</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>98.18892187093191</v>
+      </c>
+      <c r="O22" t="n">
+        <v>124</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4.478178469774439</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.154320050008423</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Kon Tum</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1.642427519238563</v>
+      </c>
+      <c r="D23" t="n">
+        <v>50</v>
+      </c>
+      <c r="E23" t="n">
+        <v>8</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.01927379783382931</v>
+      </c>
+      <c r="I23" t="n">
+        <v>110</v>
+      </c>
+      <c r="J23" t="n">
+        <v>14</v>
+      </c>
+      <c r="K23" t="n">
+        <v>781</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>33.75379980583547</v>
+      </c>
+      <c r="O23" t="n">
+        <v>247</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.495713010094025</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.22064337879586</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Lai Châu</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>3.064499705740826e-07</v>
+      </c>
+      <c r="D24" t="n">
+        <v>50</v>
+      </c>
+      <c r="E24" t="n">
+        <v>8</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.008912999484472654</v>
+      </c>
+      <c r="I24" t="n">
+        <v>114</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2</v>
+      </c>
+      <c r="K24" t="n">
+        <v>775</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>86.50159398132413</v>
+      </c>
+      <c r="O24" t="n">
+        <v>251</v>
+      </c>
+      <c r="P24" t="n">
+        <v>9.733552988821101</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5.44466294514924</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Long An</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>6.411231322020703</v>
+      </c>
+      <c r="D25" t="n">
+        <v>50</v>
+      </c>
+      <c r="E25" t="n">
+        <v>8</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.03099280048345702</v>
+      </c>
+      <c r="I25" t="n">
+        <v>132</v>
+      </c>
+      <c r="J25" t="n">
+        <v>7</v>
+      </c>
+      <c r="K25" t="n">
+        <v>178</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>35.80104190678283</v>
+      </c>
+      <c r="O25" t="n">
+        <v>181</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5.370179013635137</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>7.049018992576829</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Lào Cai</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.004300032550481447</v>
+      </c>
+      <c r="D26" t="n">
+        <v>50</v>
+      </c>
+      <c r="E26" t="n">
+        <v>8</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.07445273319563661</v>
+      </c>
+      <c r="I26" t="n">
+        <v>83</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2</v>
+      </c>
+      <c r="K26" t="n">
+        <v>447</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>50.867385288899</v>
+      </c>
+      <c r="O26" t="n">
+        <v>73</v>
+      </c>
+      <c r="P26" t="n">
+        <v>8.109007764396942</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.398213947808266</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Lâm Đồng</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.5206956413649012</v>
+      </c>
+      <c r="D27" t="n">
+        <v>50</v>
+      </c>
+      <c r="E27" t="n">
+        <v>8</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.001235335308247832</v>
+      </c>
+      <c r="I27" t="n">
+        <v>74</v>
+      </c>
+      <c r="J27" t="n">
+        <v>12</v>
+      </c>
+      <c r="K27" t="n">
+        <v>989</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>73.59963263107498</v>
+      </c>
+      <c r="O27" t="n">
+        <v>74</v>
+      </c>
+      <c r="P27" t="n">
+        <v>6.105096661526962</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>7.502159891071868</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Lạng Sơn</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.01496302516801074</v>
+      </c>
+      <c r="D28" t="n">
+        <v>50</v>
+      </c>
+      <c r="E28" t="n">
+        <v>8</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0530783188817875</v>
+      </c>
+      <c r="I28" t="n">
+        <v>71</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>231</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>84.87248774713906</v>
+      </c>
+      <c r="O28" t="n">
+        <v>119</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5.062949693982581</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>8.983639881936467</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Nam Định</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3668307045674666</v>
+      </c>
+      <c r="D29" t="n">
+        <v>50</v>
+      </c>
+      <c r="E29" t="n">
+        <v>8</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.009926772850314146</v>
+      </c>
+      <c r="I29" t="n">
+        <v>177</v>
+      </c>
+      <c r="J29" t="n">
+        <v>11</v>
+      </c>
+      <c r="K29" t="n">
+        <v>123</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>2.256260645595745</v>
+      </c>
+      <c r="O29" t="n">
+        <v>92</v>
+      </c>
+      <c r="P29" t="n">
+        <v>6.801669085312217</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>7.133160744834803</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Nghệ An</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.239448012462847</v>
+      </c>
+      <c r="D30" t="n">
+        <v>50</v>
+      </c>
+      <c r="E30" t="n">
+        <v>8</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.001223826353834512</v>
+      </c>
+      <c r="I30" t="n">
+        <v>103</v>
+      </c>
+      <c r="J30" t="n">
+        <v>7</v>
+      </c>
+      <c r="K30" t="n">
+        <v>106</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>91.40659562288985</v>
+      </c>
+      <c r="O30" t="n">
+        <v>91</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4.498681368624281</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>7.134771262505346</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ninh Bình</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.04833950605491501</v>
+      </c>
+      <c r="D31" t="n">
+        <v>50</v>
+      </c>
+      <c r="E31" t="n">
+        <v>8</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.001536921505864934</v>
+      </c>
+      <c r="I31" t="n">
+        <v>100</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>906</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>12.97056480445051</v>
+      </c>
+      <c r="O31" t="n">
+        <v>78</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.1636320912712055</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>9.977769816639105</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Ninh Thuận</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>12.7273887170692</v>
+      </c>
+      <c r="D32" t="n">
+        <v>50</v>
+      </c>
+      <c r="E32" t="n">
+        <v>8</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.001230656208057309</v>
+      </c>
+      <c r="I32" t="n">
+        <v>51</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4</v>
+      </c>
+      <c r="K32" t="n">
+        <v>382</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>19.51453198659709</v>
+      </c>
+      <c r="O32" t="n">
+        <v>119</v>
+      </c>
+      <c r="P32" t="n">
+        <v>8.170634924292964</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5.947294310264098</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Phú Thọ</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.04307130941051338</v>
+      </c>
+      <c r="D33" t="n">
+        <v>50</v>
+      </c>
+      <c r="E33" t="n">
+        <v>8</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.001387821314132899</v>
+      </c>
+      <c r="I33" t="n">
+        <v>59</v>
+      </c>
+      <c r="J33" t="n">
+        <v>11</v>
+      </c>
+      <c r="K33" t="n">
+        <v>141</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>14.04204752550708</v>
+      </c>
+      <c r="O33" t="n">
+        <v>244</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5.747193004806168</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.611996496689537</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Phú Yên</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>8.352637670441426</v>
+      </c>
+      <c r="D34" t="n">
+        <v>50</v>
+      </c>
+      <c r="E34" t="n">
+        <v>8</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.08730893905530715</v>
+      </c>
+      <c r="I34" t="n">
+        <v>200</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3</v>
+      </c>
+      <c r="K34" t="n">
+        <v>922</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>44.31953039376623</v>
+      </c>
+      <c r="O34" t="n">
+        <v>139</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.669560781981736</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5.548283592119023</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Quảng Bình</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1.533302175991238</v>
+      </c>
+      <c r="D35" t="n">
+        <v>50</v>
+      </c>
+      <c r="E35" t="n">
+        <v>8</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.0279927949819143</v>
+      </c>
+      <c r="I35" t="n">
+        <v>119</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2</v>
+      </c>
+      <c r="K35" t="n">
+        <v>903</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>65.38338002150512</v>
+      </c>
+      <c r="O35" t="n">
+        <v>192</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3.124693541788347</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.000658871506369</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Quảng Nam</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>3.560371013035546</v>
+      </c>
+      <c r="D36" t="n">
+        <v>50</v>
+      </c>
+      <c r="E36" t="n">
+        <v>8</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.008613470406724152</v>
+      </c>
+      <c r="I36" t="n">
+        <v>50</v>
+      </c>
+      <c r="J36" t="n">
+        <v>15</v>
+      </c>
+      <c r="K36" t="n">
+        <v>924</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>92.99424507941198</v>
+      </c>
+      <c r="O36" t="n">
+        <v>62</v>
+      </c>
+      <c r="P36" t="n">
+        <v>8.129323712118413</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.22371590584059</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Quảng Ngãi</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>3.639023703685631</v>
+      </c>
+      <c r="D37" t="n">
+        <v>50</v>
+      </c>
+      <c r="E37" t="n">
+        <v>8</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.007126090996863641</v>
+      </c>
+      <c r="I37" t="n">
+        <v>76</v>
+      </c>
+      <c r="J37" t="n">
+        <v>12</v>
+      </c>
+      <c r="K37" t="n">
+        <v>688</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>32.50784130213303</v>
+      </c>
+      <c r="O37" t="n">
+        <v>201</v>
+      </c>
+      <c r="P37" t="n">
+        <v>7.81297683785256</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>7.061395055010049</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Quảng Ninh</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.6418104857578569</v>
+      </c>
+      <c r="D38" t="n">
+        <v>50</v>
+      </c>
+      <c r="E38" t="n">
+        <v>8</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.005351762781110304</v>
+      </c>
+      <c r="I38" t="n">
+        <v>151</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>585</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>51.52159193262645</v>
+      </c>
+      <c r="O38" t="n">
+        <v>107</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4.211053789930677</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>6.185401168048884</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Quảng Trị</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1.820630809886938</v>
+      </c>
+      <c r="D39" t="n">
+        <v>50</v>
+      </c>
+      <c r="E39" t="n">
+        <v>8</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.09724133473623521</v>
+      </c>
+      <c r="I39" t="n">
+        <v>105</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>148</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>67.62536065936969</v>
+      </c>
+      <c r="O39" t="n">
+        <v>213</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2.264925003490528</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3.519274082067753</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Sóc Trăng</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>8.909428444762284</v>
+      </c>
+      <c r="D40" t="n">
+        <v>50</v>
+      </c>
+      <c r="E40" t="n">
+        <v>8</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.01324683892505558</v>
+      </c>
+      <c r="I40" t="n">
+        <v>136</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4</v>
+      </c>
+      <c r="K40" t="n">
+        <v>462</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>15.80394882076224</v>
+      </c>
+      <c r="O40" t="n">
+        <v>124</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2.899928466752228</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.4618491001896915</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Sơn La</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>5.431369170344156e-07</v>
+      </c>
+      <c r="D41" t="n">
+        <v>50</v>
+      </c>
+      <c r="E41" t="n">
+        <v>8</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.02829939191166207</v>
+      </c>
+      <c r="I41" t="n">
+        <v>76</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3</v>
+      </c>
+      <c r="K41" t="n">
+        <v>891</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>38.71218415382352</v>
+      </c>
+      <c r="O41" t="n">
+        <v>19</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.860431200666086</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5.556450954465706</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>TT Huế</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2.491679632171531</v>
+      </c>
+      <c r="D42" t="n">
+        <v>50</v>
+      </c>
+      <c r="E42" t="n">
+        <v>8</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.001253784730599515</v>
+      </c>
+      <c r="I42" t="n">
+        <v>104</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>558</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>1.435580408207555</v>
+      </c>
+      <c r="O42" t="n">
+        <v>171</v>
+      </c>
+      <c r="P42" t="n">
+        <v>8.863178127356571</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>6.766655857417989</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Thanh Hóa</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.1606560928031711</v>
+      </c>
+      <c r="D43" t="n">
+        <v>50</v>
+      </c>
+      <c r="E43" t="n">
+        <v>8</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.05780016181061735</v>
+      </c>
+      <c r="I43" t="n">
+        <v>96</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>945</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>75.74850667479335</v>
+      </c>
+      <c r="O43" t="n">
+        <v>170</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2.797817013186701</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>9.562165621618602</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Thái Bình</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.2172765723604366</v>
+      </c>
+      <c r="D44" t="n">
+        <v>50</v>
+      </c>
+      <c r="E44" t="n">
+        <v>8</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.06910390790991738</v>
+      </c>
+      <c r="I44" t="n">
+        <v>198</v>
+      </c>
+      <c r="J44" t="n">
+        <v>10</v>
+      </c>
+      <c r="K44" t="n">
+        <v>613</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>43.08875800661527</v>
+      </c>
+      <c r="O44" t="n">
+        <v>145</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5.567441025256901</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>8.769124632155117</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Thái Nguyên</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.02177168203960851</v>
+      </c>
+      <c r="D45" t="n">
+        <v>50</v>
+      </c>
+      <c r="E45" t="n">
+        <v>8</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.05679836549968988</v>
+      </c>
+      <c r="I45" t="n">
+        <v>85</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>679</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>54.98358593691896</v>
+      </c>
+      <c r="O45" t="n">
+        <v>174</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.175969731489837</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4.700935012305213</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Tiền Giang</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>9.854264739179989</v>
+      </c>
+      <c r="D46" t="n">
+        <v>50</v>
+      </c>
+      <c r="E46" t="n">
+        <v>8</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.005361485690310815</v>
+      </c>
+      <c r="I46" t="n">
+        <v>164</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>54</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>95.20767894608753</v>
+      </c>
+      <c r="O46" t="n">
+        <v>199</v>
+      </c>
+      <c r="P46" t="n">
+        <v>7.361592153460265</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.5584477288905889</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Trà Vinh</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>3.101192454869432</v>
+      </c>
+      <c r="D47" t="n">
+        <v>50</v>
+      </c>
+      <c r="E47" t="n">
+        <v>8</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.01837705269353454</v>
+      </c>
+      <c r="I47" t="n">
+        <v>175</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3</v>
+      </c>
+      <c r="K47" t="n">
+        <v>480</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>33.1341464716899</v>
+      </c>
+      <c r="O47" t="n">
+        <v>4</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.685509808348502</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2.491390709516351</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Tuyên Quang</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1.918387073071685e-06</v>
+      </c>
+      <c r="D48" t="n">
+        <v>50</v>
+      </c>
+      <c r="E48" t="n">
+        <v>8</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.01944558220915185</v>
+      </c>
+      <c r="I48" t="n">
+        <v>170</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>694</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>53.43115116585412</v>
+      </c>
+      <c r="O48" t="n">
+        <v>9</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2.52911200977955</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.880066342536694</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Tây Ninh</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>9.075837339832043</v>
+      </c>
+      <c r="D49" t="n">
+        <v>50</v>
+      </c>
+      <c r="E49" t="n">
+        <v>8</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.0647792091917222</v>
+      </c>
+      <c r="I49" t="n">
+        <v>192</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2</v>
+      </c>
+      <c r="K49" t="n">
+        <v>747</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>96.93766297443457</v>
+      </c>
+      <c r="O49" t="n">
+        <v>244</v>
+      </c>
+      <c r="P49" t="n">
+        <v>6.937248811395838</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1.202531416996315</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Vĩnh Phúc</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.2065417189120123</v>
+      </c>
+      <c r="D50" t="n">
+        <v>50</v>
+      </c>
+      <c r="E50" t="n">
+        <v>8</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.004971640549145718</v>
+      </c>
+      <c r="I50" t="n">
+        <v>83</v>
+      </c>
+      <c r="J50" t="n">
+        <v>15</v>
+      </c>
+      <c r="K50" t="n">
+        <v>416</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>99.86733954094895</v>
+      </c>
+      <c r="O50" t="n">
+        <v>120</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4.202055955410549</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>7.55749653641118</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Yên Bái</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.02012413650959631</v>
+      </c>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="n">
+        <v>8</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.004708368518361393</v>
+      </c>
+      <c r="I51" t="n">
+        <v>137</v>
+      </c>
+      <c r="J51" t="n">
+        <v>5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>887</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>0.6469832718244029</v>
+      </c>
+      <c r="O51" t="n">
+        <v>164</v>
+      </c>
+      <c r="P51" t="n">
+        <v>8.462256694161095</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>9.973585733190733</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Điện Biên</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.005256079571313797</v>
+      </c>
+      <c r="D52" t="n">
+        <v>50</v>
+      </c>
+      <c r="E52" t="n">
+        <v>8</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.04377543672134752</v>
+      </c>
+      <c r="I52" t="n">
+        <v>60</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2</v>
+      </c>
+      <c r="K52" t="n">
+        <v>400</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>50.84838433247307</v>
+      </c>
+      <c r="O52" t="n">
+        <v>232</v>
+      </c>
+      <c r="P52" t="n">
+        <v>8.198271921362615</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>8.769949456497701</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>9.176960035332634</v>
+      </c>
+      <c r="D53" t="n">
+        <v>50</v>
+      </c>
+      <c r="E53" t="n">
+        <v>8</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.0020633365848826</v>
+      </c>
+      <c r="I53" t="n">
+        <v>64</v>
+      </c>
+      <c r="J53" t="n">
+        <v>5</v>
+      </c>
+      <c r="K53" t="n">
+        <v>394</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>5.904223250097703</v>
+      </c>
+      <c r="O53" t="n">
+        <v>112</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1.92438000586319</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>6.49660126811399</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Đắk Nông</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>3.219049791941146</v>
+      </c>
+      <c r="D54" t="n">
+        <v>50</v>
+      </c>
+      <c r="E54" t="n">
+        <v>8</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.02455490806030639</v>
+      </c>
+      <c r="I54" t="n">
+        <v>88</v>
+      </c>
+      <c r="J54" t="n">
+        <v>13</v>
+      </c>
+      <c r="K54" t="n">
+        <v>724</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>80.73469339566799</v>
+      </c>
+      <c r="O54" t="n">
+        <v>200</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5.749956770747095</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>7.344173149404456</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Đắk Lắk</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>8.129425621844575</v>
+      </c>
+      <c r="D55" t="n">
+        <v>50</v>
+      </c>
+      <c r="E55" t="n">
+        <v>8</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.007694930644335149</v>
+      </c>
+      <c r="I55" t="n">
+        <v>97</v>
+      </c>
+      <c r="J55" t="n">
+        <v>15</v>
+      </c>
+      <c r="K55" t="n">
+        <v>437</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>87.70702061396493</v>
+      </c>
+      <c r="O55" t="n">
+        <v>111</v>
+      </c>
+      <c r="P55" t="n">
+        <v>8.584113407304534</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5.553272142748762</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Đồng Tháp</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>7.691470522237932</v>
+      </c>
+      <c r="D56" t="n">
+        <v>50</v>
+      </c>
+      <c r="E56" t="n">
+        <v>8</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>-6,-7,-8</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.09958678107679379</v>
+      </c>
+      <c r="I56" t="n">
+        <v>70</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2</v>
+      </c>
+      <c r="K56" t="n">
+        <v>115</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>59.60746622120974</v>
+      </c>
+      <c r="O56" t="n">
+        <v>201</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2.978528285639299</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.6814429703651737</v>
       </c>
     </row>
   </sheetData>
